--- a/documents/data_dictionary.xlsx
+++ b/documents/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soniatavarez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soniatavarez/Desktop/CIS9440-Homework/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BC291-C103-1142-80A9-E34E2F7E96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C5046C-333A-DF42-98BF-B017A5D91BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="740" windowWidth="20060" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Information" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="263">
   <si>
     <r>
       <rPr>
@@ -937,9 +937,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>Program Group</t>
-  </si>
-  <si>
     <t>Building ID</t>
   </si>
   <si>
@@ -1135,9 +1132,6 @@
     <t>Certain types of projects to assist homeowners or special populations are marked as “CONFIDENTIAL”.</t>
   </si>
   <si>
-    <t>The broadened program category for a project, which is based on the project’s primary program.</t>
-  </si>
-  <si>
     <t>The House Number is the street number in the building’s address.</t>
   </si>
   <si>
@@ -1160,13 +1154,6 @@
   </si>
   <si>
     <t>1-51</t>
-  </si>
-  <si>
-    <t>Homeowner Assistance Program: Programs that provide homeowner assistance for repairs, down payments, and mortgages.
-Multifamily Finance Program: Programs that provide loans/financing for new construction or rehabilitation of multifamily projects.
-Multifamily Incentives Program: Programs that provide financial incentives in exchange for multifamily construction/preservation projects.
-Sandy Program: Programs related to Sandy Multifamily Program.
-Small Homes Program: Programs relating to building or preserving small homes.</t>
   </si>
   <si>
     <t>Building IDs for Confidential projects are masked.</t>
@@ -2643,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -2783,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -2811,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -2839,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -2867,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -2895,7 +2882,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -8553,10 +8540,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X996"/>
+  <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8640,7 +8627,7 @@
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="30"/>
@@ -8668,14 +8655,14 @@
         <v>168</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -8697,20 +8684,20 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
     </row>
-    <row r="6" spans="1:24" ht="169" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>244</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>242</v>
+      </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -8731,19 +8718,19 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -8770,14 +8757,14 @@
         <v>171</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -8799,20 +8786,20 @@
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
     </row>
-    <row r="9" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>238</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -8835,16 +8822,14 @@
     </row>
     <row r="10" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>241</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
@@ -8869,14 +8854,14 @@
     </row>
     <row r="11" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
@@ -8901,14 +8886,14 @@
     </row>
     <row r="12" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
@@ -8931,16 +8916,18 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
     </row>
-    <row r="13" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>240</v>
+      </c>
       <c r="D13" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
@@ -8965,16 +8952,16 @@
     </row>
     <row r="14" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30"/>
@@ -8999,16 +8986,14 @@
     </row>
     <row r="15" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>243</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
@@ -9033,14 +9018,14 @@
     </row>
     <row r="16" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="30"/>
@@ -9063,16 +9048,16 @@
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
     </row>
-    <row r="17" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="65" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
@@ -9100,11 +9085,11 @@
         <v>189</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="30"/>
@@ -9132,11 +9117,11 @@
         <v>190</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
@@ -9164,11 +9149,11 @@
         <v>191</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="30"/>
@@ -9191,18 +9176,22 @@
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
     </row>
-    <row r="21" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="104" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>192</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="29"/>
+        <v>245</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>244</v>
+      </c>
       <c r="D21" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="29"/>
+        <v>246</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -9223,21 +9212,19 @@
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
     </row>
-    <row r="22" spans="1:24" ht="104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="65" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>247</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -9259,20 +9246,18 @@
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
     </row>
-    <row r="23" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>257</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -9293,16 +9278,16 @@
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="52" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="30"/>
@@ -9325,16 +9310,16 @@
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
     </row>
-    <row r="25" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="30"/>
@@ -9359,14 +9344,14 @@
     </row>
     <row r="26" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
@@ -9391,14 +9376,14 @@
     </row>
     <row r="27" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
@@ -9423,46 +9408,46 @@
     </row>
     <row r="28" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-    </row>
-    <row r="29" spans="1:24" ht="39" x14ac:dyDescent="0.2">
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+    </row>
+    <row r="29" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="31"/>
@@ -9485,16 +9470,16 @@
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
     </row>
-    <row r="30" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E30" s="29"/>
       <c r="F30" s="31"/>
@@ -9519,14 +9504,14 @@
     </row>
     <row r="31" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="31"/>
@@ -9551,14 +9536,14 @@
     </row>
     <row r="32" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="31"/>
@@ -9583,14 +9568,14 @@
     </row>
     <row r="33" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="31"/>
@@ -9615,14 +9600,14 @@
     </row>
     <row r="34" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="31"/>
@@ -9647,14 +9632,14 @@
     </row>
     <row r="35" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="31"/>
@@ -9677,16 +9662,16 @@
       <c r="W35" s="31"/>
       <c r="X35" s="31"/>
     </row>
-    <row r="36" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="31"/>
@@ -9711,14 +9696,14 @@
     </row>
     <row r="37" spans="1:24" ht="26" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="31"/>
@@ -9741,16 +9726,16 @@
       <c r="W37" s="31"/>
       <c r="X37" s="31"/>
     </row>
-    <row r="38" spans="1:24" ht="26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="65" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="31"/>
@@ -9773,16 +9758,16 @@
       <c r="W38" s="31"/>
       <c r="X38" s="31"/>
     </row>
-    <row r="39" spans="1:24" ht="65" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="52" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="31"/>
@@ -9807,14 +9792,14 @@
     </row>
     <row r="40" spans="1:24" ht="52" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="31"/>
@@ -9837,16 +9822,16 @@
       <c r="W40" s="31"/>
       <c r="X40" s="31"/>
     </row>
-    <row r="41" spans="1:24" ht="52" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="39" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="31"/>
@@ -9869,18 +9854,20 @@
       <c r="W41" s="31"/>
       <c r="X41" s="31"/>
     </row>
-    <row r="42" spans="1:24" ht="39" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="29"/>
+    <row r="42" spans="1:24" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="31"/>
       <c r="D42" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>258</v>
+      </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
@@ -9901,19 +9888,19 @@
       <c r="W42" s="31"/>
       <c r="X42" s="31"/>
     </row>
-    <row r="43" spans="1:24" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -9935,20 +9922,12 @@
       <c r="W43" s="31"/>
       <c r="X43" s="31"/>
     </row>
-    <row r="44" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>265</v>
-      </c>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="31"/>
-      <c r="D44" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>261</v>
-      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
@@ -10073,47 +10052,22 @@
       <c r="W48" s="31"/>
       <c r="X48" s="31"/>
     </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-    </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11045,7 +10999,6 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -11053,7 +11006,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <ignoredErrors>
-    <ignoredError sqref="C15" twoDigitTextYear="1"/>
+    <ignoredError sqref="C14" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/documents/data_dictionary.xlsx
+++ b/documents/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soniatavarez/Desktop/CIS9440-Homework/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C5046C-333A-DF42-98BF-B017A5D91BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C81EB-6E16-A54E-80A2-7175D2FD5E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="740" windowWidth="20060" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="2560" windowWidth="20060" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Information" sheetId="1" state="hidden" r:id="rId1"/>
@@ -8543,7 +8543,7 @@
   <dimension ref="A1:X995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
